--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1862292.39396212</v>
+        <v>-1864970.27936098</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>372.2263125710896</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>84.13082519693216</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>60.66118004843935</v>
+        <v>239.2915798866818</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>9.823713257557939</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>158.653928182123</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>12.61135104643474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>133.9645670807516</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>162.8488061766259</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>67.55403380471442</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>77.9773651578025</v>
       </c>
       <c r="X8" t="n">
-        <v>69.93379103347905</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>93.30122672835687</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>192.8591723023335</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>27.77749086859572</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>150.6726801246946</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238295</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>34.2234001515595</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>98.7489785493142</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8640357413588</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.1436917124527</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>25.73194049497363</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>137.3021949834108</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>27.31547498186517</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261735</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652652</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>797.6657540487763</v>
+        <v>1255.834556068884</v>
       </c>
       <c r="C2" t="n">
-        <v>797.6657540487763</v>
+        <v>886.8720391284728</v>
       </c>
       <c r="D2" t="n">
-        <v>797.6657540487763</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="E2" t="n">
-        <v>797.6657540487763</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F2" t="n">
-        <v>797.6657540487763</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2477.358696888103</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2477.358696888103</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2223.777636152282</v>
       </c>
       <c r="V2" t="n">
-        <v>1914.039499555782</v>
+        <v>1982.068969600078</v>
       </c>
       <c r="W2" t="n">
-        <v>1561.270844285668</v>
+        <v>1629.300314329964</v>
       </c>
       <c r="X2" t="n">
-        <v>1187.805086024588</v>
+        <v>1255.834556068884</v>
       </c>
       <c r="Y2" t="n">
-        <v>797.6657540487763</v>
+        <v>1255.834556068884</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145195</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380223</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694941</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.0960630783031</v>
+        <v>1411.970906588912</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1598801503962</v>
+        <v>1243.034723661006</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>1092.91808424867</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1476.189626961242</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="T4" t="n">
-        <v>1253.211146155977</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="U4" t="n">
-        <v>1253.211146155977</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="V4" t="n">
-        <v>998.5266579500903</v>
+        <v>2111.02609235413</v>
       </c>
       <c r="W4" t="n">
-        <v>998.5266579500903</v>
+        <v>1821.608922317169</v>
       </c>
       <c r="X4" t="n">
-        <v>770.537107052073</v>
+        <v>1593.619371419152</v>
       </c>
       <c r="Y4" t="n">
-        <v>549.7445279085429</v>
+        <v>1593.619371419152</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>898.5363853637798</v>
+        <v>880.2842339216199</v>
       </c>
       <c r="C5" t="n">
-        <v>898.5363853637798</v>
+        <v>880.2842339216199</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570294</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>136.2302827166253</v>
       </c>
       <c r="F5" t="n">
         <v>129.2847819674218</v>
@@ -4562,16 +4562,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4586,31 +4586,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2340.854948575238</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2009.792061231668</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.741315664793</v>
+        <v>1657.023405961553</v>
       </c>
       <c r="X5" t="n">
-        <v>1675.275557403713</v>
+        <v>1657.023405961553</v>
       </c>
       <c r="Y5" t="n">
-        <v>1285.136225427902</v>
+        <v>1266.884073985742</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,34 +4641,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
         <v>2426.617474780096</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>665.9284545426499</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>496.992271614743</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1471.952376461744</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1471.952376461744</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1471.952376461744</v>
+        <v>1148.602493646554</v>
       </c>
       <c r="V7" t="n">
-        <v>1217.267888255857</v>
+        <v>893.9180054406672</v>
       </c>
       <c r="W7" t="n">
-        <v>927.850718218896</v>
+        <v>893.9180054406672</v>
       </c>
       <c r="X7" t="n">
-        <v>699.8611673208786</v>
+        <v>665.9284545426499</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>665.9284545426499</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="X8" t="n">
-        <v>2317.603609306213</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,19 +4884,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>645.3078929297411</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>476.3717100018342</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>476.3717100018342</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>328.4586164194411</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>328.4586164194411</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>160.7557797941601</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>160.7557797941601</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4990,22 +4990,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1732.487303338661</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1732.487303338661</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1732.487303338661</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1443.0701333017</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1215.080582403683</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>994.2880032601528</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>430.782665075334</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>430.782665075334</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>430.782665075334</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>263.5865657902139</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>121.874734632412</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.867919098987</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.792692443184</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1501.108204237296</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
         <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5507,13 +5507,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,7 +5522,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5534,16 +5534,16 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,16 +5601,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.7543264856228</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2164.361806256059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1875.286579600257</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V19" t="n">
-        <v>1620.602091394371</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W19" t="n">
-        <v>1331.18492135741</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1103.195370459393</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>882.4027913158625</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5744,52 +5744,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5838,10 +5838,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
         <v>2129.438138565707</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>632.3401009508116</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.4270073684185</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.4270073684185</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2420.971224494428</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2238.116390149333</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2018.514925172274</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.514925172274</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192511</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6081,7 +6081,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0193492433381</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6312,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6382,43 +6382,43 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6455,46 +6455,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,28 +7096,28 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,19 +7567,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954153</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382519</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
         <v>782.551295565682</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380735</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979287</v>
@@ -7822,10 +7822,10 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.9531451156648</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>30.3692565058945</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.4465442417444</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>267.0910784216956</v>
+        <v>88.46067858345313</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.190246567156956e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>53.48834544996978</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>66.73277020259363</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>111.1976478713717</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>118.6564717779741</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.3804465798161232</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.64330621514806</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>29.94462611521706</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>191.2691783702296</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.247535904753022e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-9.805489753489383e-13</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-8.384404281969182e-13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-7.247535904753022e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81152.27790359157</v>
+        <v>81152.27790359156</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26335,7 +26335,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
@@ -26344,16 +26344,16 @@
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036143</v>
+        <v>187032.8958036142</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38655.05046517601</v>
+        <v>38655.05046517592</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="G4" t="n">
+        <v>9337.200356756572</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756573</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="H4" t="n">
-        <v>9337.200356756653</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756613</v>
-      </c>
       <c r="J4" t="n">
+        <v>17328.05961985008</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17328.05961985004</v>
+      </c>
+      <c r="L4" t="n">
+        <v>17328.05961985004</v>
+      </c>
+      <c r="M4" t="n">
         <v>17328.05961985006</v>
       </c>
-      <c r="K4" t="n">
-        <v>17328.05961985011</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17328.05961985012</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17328.05961985007</v>
-      </c>
       <c r="N4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985004</v>
       </c>
       <c r="O4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985006</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1165192.328577349</v>
+        <v>-1165621.887443938</v>
       </c>
       <c r="C6" t="n">
         <v>-127033.8248989118</v>
       </c>
       <c r="D6" t="n">
-        <v>-286455.0948968038</v>
+        <v>-286455.0948968036</v>
       </c>
       <c r="E6" t="n">
-        <v>-334978.867026768</v>
+        <v>-335013.6049522042</v>
       </c>
       <c r="F6" t="n">
-        <v>-9566.405219412947</v>
+        <v>-9601.143144848611</v>
       </c>
       <c r="G6" t="n">
-        <v>-9566.405219412918</v>
+        <v>-9601.143144848611</v>
       </c>
       <c r="H6" t="n">
-        <v>-9566.405219412947</v>
+        <v>-9601.143144848669</v>
       </c>
       <c r="I6" t="n">
-        <v>-9566.405219412918</v>
+        <v>-9601.143144848655</v>
       </c>
       <c r="J6" t="n">
         <v>-204894.8500443442</v>
       </c>
       <c r="K6" t="n">
-        <v>-17861.95424072989</v>
+        <v>-17861.95424072986</v>
       </c>
       <c r="L6" t="n">
-        <v>-66155.92424892084</v>
+        <v>-66155.92424892068</v>
       </c>
       <c r="M6" t="n">
-        <v>-102916.9821762419</v>
+        <v>-102916.9821762418</v>
       </c>
       <c r="N6" t="n">
         <v>-17861.95424073</v>
       </c>
       <c r="O6" t="n">
-        <v>-37289.67223436182</v>
+        <v>-37289.67223436179</v>
       </c>
       <c r="P6" t="n">
-        <v>-17861.95424073</v>
+        <v>-17861.95424073002</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000386</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>190.8166233022539</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>190.8166233022541</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>39.3213902018644</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>39.32139020186219</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>136.6102493890112</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>36.00853217961443</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>238.4338990820273</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>215.2764016366615</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,19 +27822,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>31.81365418511163</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>218.6731203164862</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>271.2636035596105</v>
       </c>
       <c r="X8" t="n">
-        <v>299.79730964499</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>3.051193681481223</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>26.68977697383568</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286962</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>491.1355220041054</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>575.5951359912046</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32552,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>575.5951359912046</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107746</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>639.47033547631</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065822</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>328.0496171437447</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34799,7 +34799,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>631.6436438346183</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.8432633066779</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>433.4611020691863</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>433.4611020691863</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663302</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
